--- a/data/trans_orig/P79A6_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Clase-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>15013</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11394</v>
+        <v>10557</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>16201</v>
@@ -750,7 +750,7 @@
         <v>0.9266771013067295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7032764859891247</v>
+        <v>0.6516120938522452</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>14230</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9263</v>
+        <v>9501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17161</v>
+        <v>16918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7787284878816563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5069151439920531</v>
+        <v>0.5199698450620839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9391447273921227</v>
+        <v>0.925870464066767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -783,19 +783,19 @@
         <v>29243</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24165</v>
+        <v>23053</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32589</v>
+        <v>32473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.848256967369909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7009659112222529</v>
+        <v>0.668712212528402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.945317493334078</v>
+        <v>0.9419600800271728</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4807</v>
+        <v>5644</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07332289869327038</v>
+        <v>0.0733228986932704</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2967235140108752</v>
+        <v>0.3483879061477522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>4043</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1112</v>
+        <v>1355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9010</v>
+        <v>8772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2212715121183437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06085527260787729</v>
+        <v>0.07412953593323314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4930848560079471</v>
+        <v>0.4800301549379184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>5231</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1885</v>
+        <v>2001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10309</v>
+        <v>11421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.151743032630091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05468250666592209</v>
+        <v>0.05803991997282732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2990340887777472</v>
+        <v>0.3312877874716002</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>26526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20632</v>
+        <v>19526</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>28103</v>
@@ -967,7 +967,7 @@
         <v>0.9438838934852309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7341392755191404</v>
+        <v>0.6947939721671771</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -979,19 +979,19 @@
         <v>26105</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22941</v>
+        <v>22861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27861</v>
+        <v>27872</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9160677637675464</v>
+        <v>0.9160677637675463</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8050437705606369</v>
+        <v>0.8022120544387974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.977697339350928</v>
+        <v>0.9780562988989395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1000,19 +1000,19 @@
         <v>52631</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46445</v>
+        <v>47118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55246</v>
+        <v>55305</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9298789846457791</v>
+        <v>0.9298789846457792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8205875211413459</v>
+        <v>0.8324760295675984</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9760863452989033</v>
+        <v>0.9771171692889989</v>
       </c>
     </row>
     <row r="8">
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7471</v>
+        <v>8577</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05611610651476905</v>
+        <v>0.05611610651476904</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2658607244808595</v>
+        <v>0.3052060278328152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1050,19 +1050,19 @@
         <v>2392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5556</v>
+        <v>5636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08393223623245377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02230266064907202</v>
+        <v>0.02194370110106039</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1949562294393631</v>
+        <v>0.1977879455612026</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1071,19 +1071,19 @@
         <v>3969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1354</v>
+        <v>1295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10155</v>
+        <v>9482</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07012101535422084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02391365470109677</v>
+        <v>0.02288283071100105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1794124788586545</v>
+        <v>0.1675239704324021</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>40554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35049</v>
+        <v>35692</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43604</v>
+        <v>43866</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8887859006112776</v>
+        <v>0.8887859006112774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7681211551880803</v>
+        <v>0.7822142736236651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9556235231068676</v>
+        <v>0.9613708951521683</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1196,16 +1196,16 @@
         <v>13803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11096</v>
+        <v>10529</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>14418</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9573573100146205</v>
+        <v>0.9573573100146204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.769586725662282</v>
+        <v>0.7302511296279385</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1217,19 +1217,19 @@
         <v>54358</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48984</v>
+        <v>48696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57884</v>
+        <v>57617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9052509228535759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8157660288511399</v>
+        <v>0.8109709959742013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9639814079211709</v>
+        <v>0.9595322242979677</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>5075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2025</v>
+        <v>1763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10580</v>
+        <v>9937</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1112140993887225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04437647689313243</v>
+        <v>0.03862910484783171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2318788448119195</v>
+        <v>0.217785726376335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3322</v>
+        <v>3889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04264268998537956</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2304132743377174</v>
+        <v>0.2697488703720671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1288,19 +1288,19 @@
         <v>5689</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2163</v>
+        <v>2430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11063</v>
+        <v>11351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09474907714642405</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03601859207882898</v>
+        <v>0.0404677757020323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1842339711488607</v>
+        <v>0.1890290040257987</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>99903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91730</v>
+        <v>91621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105296</v>
+        <v>105108</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8970821207138304</v>
+        <v>0.8970821207138305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8236938456411653</v>
+        <v>0.8227145478738691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9455145438484903</v>
+        <v>0.9438265713808994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1413,19 +1413,19 @@
         <v>52522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45857</v>
+        <v>46440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56114</v>
+        <v>56305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8739514226869498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7630455892685041</v>
+        <v>0.7727505998927362</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.933727744772757</v>
+        <v>0.9369102524214045</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -1434,19 +1434,19 @@
         <v>152425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143217</v>
+        <v>142221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159180</v>
+        <v>159127</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8889748035568643</v>
+        <v>0.8889748035568644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8352678269211842</v>
+        <v>0.8294617914407983</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9283686450046444</v>
+        <v>0.9280624710384672</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>11461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6068</v>
+        <v>6256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19634</v>
+        <v>19743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1029178792861695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05448545615150958</v>
+        <v>0.05617342861910055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1763061543588345</v>
+        <v>0.1772854521261306</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1484,19 +1484,19 @@
         <v>7575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3983</v>
+        <v>3792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14240</v>
+        <v>13657</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1260485773130501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06627225522724442</v>
+        <v>0.06308974757859558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.236954410731496</v>
+        <v>0.227249400107264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1505,19 +1505,19 @@
         <v>19037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12282</v>
+        <v>12335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28245</v>
+        <v>29241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1110251964431355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07163135499535436</v>
+        <v>0.07193752896153255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1647321730788159</v>
+        <v>0.1705382085592007</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>56423</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48915</v>
+        <v>47696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62672</v>
+        <v>62532</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7812068488523112</v>
+        <v>0.7812068488523113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6772425949640827</v>
+        <v>0.6603736639345584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8677190417657688</v>
+        <v>0.8657873275764701</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -1630,19 +1630,19 @@
         <v>98337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86153</v>
+        <v>86121</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105408</v>
+        <v>104741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8323271140686748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7292019687227482</v>
+        <v>0.7289349794455101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8921807315078979</v>
+        <v>0.8865290783934224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>193</v>
@@ -1651,19 +1651,19 @@
         <v>154760</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141968</v>
+        <v>141022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165013</v>
+        <v>164542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8129324672338905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7457358003477466</v>
+        <v>0.7407685572257645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.866789845357843</v>
+        <v>0.8643149014321803</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>15803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9554</v>
+        <v>9694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23311</v>
+        <v>24530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2187931511476888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1322809582342312</v>
+        <v>0.1342126724235299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3227574050359175</v>
+        <v>0.3396263360654417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1701,19 +1701,19 @@
         <v>19810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12739</v>
+        <v>13406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31994</v>
+        <v>32026</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1676728859313251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1078192684921021</v>
+        <v>0.1134709216065776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2707980312772517</v>
+        <v>0.2710650205544904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1722,19 +1722,19 @@
         <v>35613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25360</v>
+        <v>25831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48405</v>
+        <v>49351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1870675327661095</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1332101546421572</v>
+        <v>0.1356850985678197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2542641996522536</v>
+        <v>0.2592314427742356</v>
       </c>
     </row>
     <row r="18">
@@ -1839,19 +1839,19 @@
         <v>85237</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74188</v>
+        <v>74443</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93730</v>
+        <v>93558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8140519323413886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7085339347985844</v>
+        <v>0.7109643416024837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8951679732858291</v>
+        <v>0.8935249547559468</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -1860,19 +1860,19 @@
         <v>99740</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88363</v>
+        <v>86813</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107505</v>
+        <v>106980</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8366747376675269</v>
+        <v>0.8366747376675266</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7412356864741112</v>
+        <v>0.7282346908231876</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9018112396925225</v>
+        <v>0.8974067553865193</v>
       </c>
     </row>
     <row r="20">
@@ -1902,19 +1902,19 @@
         <v>19470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10977</v>
+        <v>11149</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30519</v>
+        <v>30264</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1859480676586112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1048320267141706</v>
+        <v>0.106475045244053</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.291466065201415</v>
+        <v>0.2890356583975162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1923,19 +1923,19 @@
         <v>19470</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11705</v>
+        <v>12230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30847</v>
+        <v>32397</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1633252623324732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09818876030747756</v>
+        <v>0.1025932446134807</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2587643135258889</v>
+        <v>0.2717653091768124</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>252923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>239150</v>
+        <v>240355</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>262793</v>
+        <v>263084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.878124265785785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8303055634121536</v>
+        <v>0.8344875464677055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9123914535835298</v>
+        <v>0.9134003560311478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>389</v>
@@ -2048,19 +2048,19 @@
         <v>290234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>272415</v>
+        <v>274559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>303315</v>
+        <v>303915</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8433623014384122</v>
+        <v>0.8433623014384121</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7915840019782177</v>
+        <v>0.7978156616562709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8813744722798661</v>
+        <v>0.8831158511066913</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>637</v>
@@ -2069,19 +2069,19 @@
         <v>543157</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>522182</v>
+        <v>521448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>559651</v>
+        <v>560194</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8592004992556803</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8260196184821784</v>
+        <v>0.8248587925831965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8852915984063889</v>
+        <v>0.8861494467747615</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>35104</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25234</v>
+        <v>24943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48877</v>
+        <v>47672</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.121875734214215</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08760854641647017</v>
+        <v>0.0865996439688522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1696944365878465</v>
+        <v>0.1655124535322943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -2119,19 +2119,19 @@
         <v>53905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>40824</v>
+        <v>40224</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71724</v>
+        <v>69580</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1566376985615879</v>
+        <v>0.1566376985615878</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1186255277201338</v>
+        <v>0.1168841488933088</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2084159980217821</v>
+        <v>0.2021843383437291</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>93</v>
@@ -2140,19 +2140,19 @@
         <v>89009</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72515</v>
+        <v>71972</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>109984</v>
+        <v>110718</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1407995007443197</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1147084015936115</v>
+        <v>0.1138505532252386</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1739803815178218</v>
+        <v>0.1751412074168037</v>
       </c>
     </row>
     <row r="24">
